--- a/app/config/tables/AQSP/forms/AQSP/AQSP.xlsx
+++ b/app/config/tables/AQSP/forms/AQSP/AQSP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\AQSPtest1\app\config\tables\AQSP\forms\AQSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B099B9-BF7A-4561-BF2D-AA06B32874CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A7F692-F8B7-4359-8DA7-EBA067729416}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14070" yWindow="15090" windowWidth="13680" windowHeight="4410" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,6 +28,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="189">
   <si>
     <t>type</t>
   </si>
@@ -600,9 +601,6 @@
   </si>
   <si>
     <t>nota_ano</t>
-  </si>
-  <si>
-    <t>nota_mes</t>
   </si>
   <si>
     <t>nota_dob</t>
@@ -1487,7 +1485,7 @@
         <v>76</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>161</v>
@@ -3052,10 +3050,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B88"/>
+  <dimension ref="A1:B87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:B28"/>
+      <selection activeCell="A38" sqref="A38:XFD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3093,7 +3091,7 @@
         <v>76</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3265,7 +3263,7 @@
         <v>76</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -3333,19 +3331,19 @@
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="26" t="s">
-        <v>76</v>
+      <c r="A38" s="23" t="s">
+        <v>10</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>185</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="23" t="s">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -3353,23 +3351,23 @@
         <v>108</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="23" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="23" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -3377,55 +3375,55 @@
         <v>63</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="B44" s="23" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="23" t="s">
-        <v>5</v>
-      </c>
       <c r="B45" s="23" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="B46" s="23" t="s">
-        <v>115</v>
+        <v>5</v>
+      </c>
+      <c r="B46" s="25" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="25" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="25" t="s">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="25" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -3433,28 +3431,28 @@
         <v>63</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="25" t="s">
-        <v>63</v>
+        <v>4</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B52" s="25" t="s">
-        <v>121</v>
+      <c r="A52" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B52" s="27" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="27" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="B53" s="27" t="s">
         <v>187</v>
@@ -3465,7 +3463,7 @@
         <v>10</v>
       </c>
       <c r="B54" s="27" t="s">
-        <v>188</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -3473,7 +3471,7 @@
         <v>10</v>
       </c>
       <c r="B55" s="27" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -3481,7 +3479,7 @@
         <v>10</v>
       </c>
       <c r="B56" s="27" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -3489,7 +3487,7 @@
         <v>10</v>
       </c>
       <c r="B57" s="27" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -3497,7 +3495,7 @@
         <v>10</v>
       </c>
       <c r="B58" s="27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -3505,7 +3503,7 @@
         <v>10</v>
       </c>
       <c r="B59" s="27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -3513,7 +3511,7 @@
         <v>10</v>
       </c>
       <c r="B60" s="27" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -3521,7 +3519,7 @@
         <v>10</v>
       </c>
       <c r="B61" s="27" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -3529,31 +3527,31 @@
         <v>10</v>
       </c>
       <c r="B62" s="27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="27" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B63" s="27" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="27" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B64" s="27" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="27" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="B65" s="27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -3561,31 +3559,31 @@
         <v>76</v>
       </c>
       <c r="B66" s="27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="27" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="B67" s="27" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="27" t="s">
-        <v>65</v>
+        <v>138</v>
       </c>
       <c r="B68" s="27" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="27" t="s">
-        <v>138</v>
+        <v>10</v>
       </c>
       <c r="B69" s="27" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -3593,47 +3591,47 @@
         <v>10</v>
       </c>
       <c r="B70" s="27" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="27" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="B71" s="27" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="27" t="s">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="B72" s="27" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="27" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="B73" s="27" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="27" t="s">
-        <v>65</v>
+        <v>138</v>
       </c>
       <c r="B74" s="27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="27" t="s">
-        <v>138</v>
+        <v>10</v>
       </c>
       <c r="B75" s="27" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -3641,39 +3639,39 @@
         <v>10</v>
       </c>
       <c r="B76" s="27" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="27" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="B77" s="27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="27" t="s">
-        <v>138</v>
+        <v>10</v>
       </c>
       <c r="B78" s="27" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="27" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="B79" s="27" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="27" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="B80" s="27" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -3681,42 +3679,34 @@
         <v>10</v>
       </c>
       <c r="B81" s="27" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="27" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B82" s="27" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="27" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="B83" s="27" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="B84" s="27" t="s">
         <v>154</v>
       </c>
     </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
+    </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="2"/>
-      <c r="B86" s="2"/>
+      <c r="A86" s="11"/>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="11"/>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
